--- a/Mifos Automation Excels/Client/3150-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%INT-Regular-PERIODIC-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3150-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%INT-Regular-PERIODIC-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -631,7 +631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -771,7 +771,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD13"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,7 +896,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection sqref="A1:P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCellId="1" sqref="A1:J5 A1:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Mifos Automation Excels/Client/3150-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%INT-Regular-PERIODIC-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3150-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%INT-Regular-PERIODIC-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -179,7 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,14 +204,6 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -291,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -324,9 +316,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,7 +620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -768,16 +757,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
@@ -883,9 +872,6 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -896,7 +882,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:P14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +981,6 @@
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
@@ -1036,9 +1021,6 @@
       <c r="N3" s="12">
         <v>0</v>
       </c>
-      <c r="O3" s="12">
-        <v>0</v>
-      </c>
       <c r="P3" s="12">
         <v>888.74</v>
       </c>
@@ -1082,9 +1064,6 @@
       <c r="N4" s="12">
         <v>0</v>
       </c>
-      <c r="O4" s="12">
-        <v>0</v>
-      </c>
       <c r="P4" s="12">
         <v>888.64</v>
       </c>
@@ -1128,9 +1107,6 @@
       <c r="N5" s="12">
         <v>0</v>
       </c>
-      <c r="O5" s="12">
-        <v>0</v>
-      </c>
       <c r="P5" s="12">
         <v>887.72</v>
       </c>
@@ -1174,9 +1150,6 @@
       <c r="N6" s="12">
         <v>0</v>
       </c>
-      <c r="O6" s="12">
-        <v>0</v>
-      </c>
       <c r="P6" s="12">
         <v>887.72</v>
       </c>
@@ -1220,9 +1193,6 @@
       <c r="N7" s="12">
         <v>0</v>
       </c>
-      <c r="O7" s="12">
-        <v>0</v>
-      </c>
       <c r="P7" s="12">
         <v>887.72</v>
       </c>
@@ -1266,9 +1236,6 @@
       <c r="N8" s="12">
         <v>0</v>
       </c>
-      <c r="O8" s="12">
-        <v>0</v>
-      </c>
       <c r="P8" s="12">
         <v>887.72</v>
       </c>
@@ -1312,9 +1279,6 @@
       <c r="N9" s="12">
         <v>0</v>
       </c>
-      <c r="O9" s="12">
-        <v>0</v>
-      </c>
       <c r="P9" s="12">
         <v>887.72</v>
       </c>
@@ -1358,9 +1322,6 @@
       <c r="N10" s="12">
         <v>0</v>
       </c>
-      <c r="O10" s="12">
-        <v>0</v>
-      </c>
       <c r="P10" s="12">
         <v>887.72</v>
       </c>
@@ -1404,9 +1365,6 @@
       <c r="N11" s="12">
         <v>0</v>
       </c>
-      <c r="O11" s="12">
-        <v>0</v>
-      </c>
       <c r="P11" s="12">
         <v>887.72</v>
       </c>
@@ -1450,9 +1408,6 @@
       <c r="N12" s="12">
         <v>0</v>
       </c>
-      <c r="O12" s="12">
-        <v>0</v>
-      </c>
       <c r="P12" s="12">
         <v>887.72</v>
       </c>
@@ -1496,9 +1451,6 @@
       <c r="N13" s="12">
         <v>0</v>
       </c>
-      <c r="O13" s="12">
-        <v>0</v>
-      </c>
       <c r="P13" s="12">
         <v>887.72</v>
       </c>
@@ -1540,9 +1492,6 @@
         <v>0</v>
       </c>
       <c r="N14" s="12">
-        <v>0</v>
-      </c>
-      <c r="O14" s="12">
         <v>0</v>
       </c>
       <c r="P14" s="12">
@@ -1557,10 +1506,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCellId="1" sqref="A1:J5 A1:J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,7 +1561,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>208</v>
+        <v>1205</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>27</v>
@@ -1646,7 +1595,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
-        <v>207</v>
+        <v>1204</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>27</v>
@@ -1658,7 +1607,7 @@
         <v>50</v>
       </c>
       <c r="E3" s="12">
-        <v>92.05</v>
+        <v>92.97</v>
       </c>
       <c r="F3" s="12">
         <v>0</v>
@@ -1680,7 +1629,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>206</v>
+        <v>1203</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>27</v>
@@ -1692,7 +1641,7 @@
         <v>50</v>
       </c>
       <c r="E4" s="12">
-        <v>101.92</v>
+        <v>102.94</v>
       </c>
       <c r="F4" s="12">
         <v>0</v>
@@ -1714,7 +1663,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
-        <v>205</v>
+        <v>1196</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>27</v>
@@ -1745,12 +1694,6 @@
       </c>
       <c r="K5"/>
       <c r="L5"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I8" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/3150-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%INT-Regular-PERIODIC-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3150-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%INT-Regular-PERIODIC-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -620,7 +620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -879,10 +879,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,12 +900,13 @@
     <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -945,17 +946,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="13">
@@ -981,8 +983,9 @@
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="12"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -1018,14 +1021,15 @@
       <c r="M3" s="12">
         <v>0</v>
       </c>
-      <c r="N3" s="12">
-        <v>0</v>
-      </c>
-      <c r="P3" s="12">
+      <c r="N3" s="12"/>
+      <c r="O3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="12">
         <v>888.74</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -1061,14 +1065,15 @@
       <c r="M4" s="12">
         <v>0</v>
       </c>
-      <c r="N4" s="12">
-        <v>0</v>
-      </c>
-      <c r="P4" s="12">
+      <c r="N4" s="12"/>
+      <c r="O4" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="12">
         <v>888.64</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -1104,14 +1109,15 @@
       <c r="M5" s="12">
         <v>0</v>
       </c>
-      <c r="N5" s="12">
-        <v>0</v>
-      </c>
-      <c r="P5" s="12">
+      <c r="N5" s="12"/>
+      <c r="O5" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="12">
         <v>887.72</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -1147,14 +1153,15 @@
       <c r="M6" s="12">
         <v>0</v>
       </c>
-      <c r="N6" s="12">
-        <v>0</v>
-      </c>
-      <c r="P6" s="12">
+      <c r="N6" s="12"/>
+      <c r="O6" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="12">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>5</v>
       </c>
@@ -1190,14 +1197,15 @@
       <c r="M7" s="12">
         <v>0</v>
       </c>
-      <c r="N7" s="12">
-        <v>0</v>
-      </c>
-      <c r="P7" s="12">
+      <c r="N7" s="12"/>
+      <c r="O7" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="12">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -1233,14 +1241,15 @@
       <c r="M8" s="12">
         <v>0</v>
       </c>
-      <c r="N8" s="12">
-        <v>0</v>
-      </c>
-      <c r="P8" s="12">
+      <c r="N8" s="12"/>
+      <c r="O8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="12">
         <v>887.72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -1276,14 +1285,15 @@
       <c r="M9" s="12">
         <v>0</v>
       </c>
-      <c r="N9" s="12">
-        <v>0</v>
-      </c>
-      <c r="P9" s="12">
+      <c r="N9" s="12"/>
+      <c r="O9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="12">
         <v>887.72</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -1319,14 +1329,15 @@
       <c r="M10" s="12">
         <v>0</v>
       </c>
-      <c r="N10" s="12">
-        <v>0</v>
-      </c>
-      <c r="P10" s="12">
+      <c r="N10" s="12"/>
+      <c r="O10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="12">
         <v>887.72</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -1362,14 +1373,15 @@
       <c r="M11" s="12">
         <v>0</v>
       </c>
-      <c r="N11" s="12">
-        <v>0</v>
-      </c>
-      <c r="P11" s="12">
+      <c r="N11" s="12"/>
+      <c r="O11" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="12">
         <v>887.72</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -1405,14 +1417,15 @@
       <c r="M12" s="12">
         <v>0</v>
       </c>
-      <c r="N12" s="12">
-        <v>0</v>
-      </c>
-      <c r="P12" s="12">
+      <c r="N12" s="12"/>
+      <c r="O12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="12">
         <v>887.72</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -1448,14 +1461,15 @@
       <c r="M13" s="12">
         <v>0</v>
       </c>
-      <c r="N13" s="12">
-        <v>0</v>
-      </c>
-      <c r="P13" s="12">
+      <c r="N13" s="12"/>
+      <c r="O13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="12">
         <v>887.72</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -1491,10 +1505,11 @@
       <c r="M14" s="12">
         <v>0</v>
       </c>
-      <c r="N14" s="12">
-        <v>0</v>
-      </c>
-      <c r="P14" s="12">
+      <c r="N14" s="12"/>
+      <c r="O14" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="12">
         <v>920.15</v>
       </c>
     </row>
